--- a/DB_Modeling/데이터베이스모델링.xlsx
+++ b/DB_Modeling/데이터베이스모델링.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-STUDY\서경훈\Orange\DB_Modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01-STUDY\서경훈\70_Portfolio_작업용\230502_데이터베이스_모델링\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="내용" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>Emart24 데이터베이스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,15 +170,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔티티: 고객(유저) / 상품 / 구매상품 / 상품 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>고객</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
+    <t>구매 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3. 하나의 상품은 재고 개수에 따라 구매 여부가 결정된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매번호, 구매개수, 구매금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 고객은 아이디, 비밀번호, 이름, 생년월일, 전화번호, 생성일 데이터를 관리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 비밀번호, 이름, 생년월일, 전화번호, 생성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품번호, 이름, 가격, 재고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -186,187 +350,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생년월일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매 상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(300)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔티티: 고객(유저) / 상품 / 구매상품 / 상품 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매 금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3. 하나의 상품은 재고 개수에 따라 구매 여부가 결정된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매번호, 구매개수, 구매금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연령제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 상품은 상품번호, 이름, 가격, 재고, 연령 제한, 종류 데이터를 관리한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 구매상품은 구매번호, 구매개수, 구매금액 데이터를 관리한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객번호, 아이디, 비밀번호, 이름, 생년월일, 전화번호, 생성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 고객은 고객번호, 아이디, 비밀번호, 이름, 생년월일, 전화번호, 생성일 데이터를 관리한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품번호, 이름, 가격, 재고, 연령 제한</t>
+    <t>구매 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 상품은 상품번호, 상품 사진 이름, 가격 데이터를 관리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 구매상품은 구매번호, 사진, 이름, 가격, 구매개수, 구매금액 데이터를 관리한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,9 +681,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -977,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B11"/>
+  <dimension ref="B1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -994,47 +983,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="2.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -1096,7 +1082,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1107,7 +1093,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1192,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J23"/>
+  <dimension ref="B1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1234,7 +1220,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>33</v>
@@ -1248,13 +1234,13 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>77</v>
-      </c>
       <c r="D4" s="19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>28</v>
@@ -1268,12 +1254,12 @@
       <c r="J4" s="22"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>28</v>
@@ -1285,12 +1271,12 @@
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>28</v>
@@ -1302,12 +1288,12 @@
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="27"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>28</v>
@@ -1319,12 +1305,12 @@
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="27"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>28</v>
@@ -1336,68 +1322,68 @@
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="27"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="G9" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
-      <c r="C10" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>28</v>
-      </c>
+    <row r="10" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="21"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="19" t="s">
-        <v>57</v>
-      </c>
+      <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="25" t="s">
-        <v>45</v>
-      </c>
+      <c r="B12" s="25"/>
       <c r="C12" s="19" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>51</v>
-      </c>
+      <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -1406,10 +1392,10 @@
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
       <c r="C13" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>28</v>
@@ -1423,10 +1409,10 @@
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>28</v>
@@ -1437,17 +1423,11 @@
       <c r="I14" s="19"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="25"/>
-      <c r="C15" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>28</v>
-      </c>
+    <row r="15" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="21"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -1455,27 +1435,37 @@
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="25"/>
+      <c r="B16" s="25" t="s">
+        <v>46</v>
+      </c>
       <c r="C16" s="19" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -1483,21 +1473,17 @@
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="25" t="s">
-        <v>47</v>
-      </c>
+      <c r="B18" s="25"/>
       <c r="C18" s="19" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>52</v>
-      </c>
+      <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1506,10 +1492,10 @@
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="25"/>
       <c r="C19" s="19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>28</v>
@@ -1523,10 +1509,10 @@
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="25"/>
       <c r="C20" s="19" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>28</v>
@@ -1540,55 +1526,72 @@
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="25"/>
       <c r="C21" s="19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>60</v>
-      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="25"/>
       <c r="C22" s="19" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="25"/>
+      <c r="C23" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
